--- a/Soen287_A1_Tasks_Allocation.xlsx
+++ b/Soen287_A1_Tasks_Allocation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Z-Jessey\School\Concordia University\Terms\Winter 2022\SOEN 287\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E938F0-490A-43F6-BB15-19903D72FA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F503921-4BC3-4881-9C36-E626FE5EDEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="93">
   <si>
     <t>Max</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t xml:space="preserve">40211998	</t>
+  </si>
+  <si>
+    <t>#4 &amp; #2</t>
   </si>
 </sst>
 </file>
@@ -687,6 +690,12 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -709,12 +718,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1244,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,26 +1262,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -1294,8 +1297,8 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -1335,105 +1338,105 @@
       <c r="A16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44" t="s">
+      <c r="C16" s="45"/>
+      <c r="D16" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="44"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39">
+      <c r="C17" s="40"/>
+      <c r="D17" s="41">
         <v>40198495</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="45">
+      <c r="C18" s="39"/>
+      <c r="D18" s="38">
         <v>40210440</v>
       </c>
-      <c r="E18" s="46"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="45" t="s">
+      <c r="C19" s="39"/>
+      <c r="D19" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="46"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="45">
+      <c r="C20" s="39"/>
+      <c r="D20" s="38">
         <v>40211033</v>
       </c>
-      <c r="E20" s="46"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="45">
+      <c r="C21" s="39"/>
+      <c r="D21" s="38">
         <v>40208954</v>
       </c>
-      <c r="E21" s="46"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="45">
+      <c r="C22" s="39"/>
+      <c r="D22" s="38">
         <v>40209686</v>
       </c>
-      <c r="E22" s="46"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="45" t="s">
+      <c r="C23" s="39"/>
+      <c r="D23" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="46"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:11" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2008,7 +2011,7 @@
         <v>26</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="86.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3392,11 +3395,13 @@
   </sheetData>
   <sheetProtection formatRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D22:E22"/>
@@ -3404,13 +3409,11 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
